--- a/biology/Zoologie/Amerila_vidua/Amerila_vidua.xlsx
+++ b/biology/Zoologie/Amerila_vidua/Amerila_vidua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amerila vidua est une espèce de papillons de nuit de la famille des Erebidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amerila vidua se rencontre au Cameroun, en République démocratique du Congo, en Guinée équatoriale, en Éthiopie, au Ghana, en Guinée, en Côte d'Ivoire, au Kenya, à Maurice, au Nigeria, en Sierra Leone et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amerila vidua se rencontre au Cameroun, en République démocratique du Congo, en Guinée équatoriale, en Éthiopie, au Ghana, en Guinée, en Côte d'Ivoire, au Kenya, à Maurice, au Nigeria, en Sierra Leone et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (6 mai 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (6 mai 2023) :
 Amerila puella invidua (Bethune-Baker, 1925)
 Amerila puella puella (Cramer, 1779)
 Amerila vidua mauritia (Cramer, 1781)
@@ -576,10 +592,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amerila vidua Cramer, 1779[2].
-Amerila vidua a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amerila vidua Cramer, 1779.
+Amerila vidua a pour synonymes :
 Amerila mauritia Stoll, 1781
 Amerila puella Fabricius, 1794</t>
         </is>
